--- a/Crédito disponível - Centralização - Campus Propriá.xlsx
+++ b/Crédito disponível - Centralização - Campus Propriá.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>Crédito disponível - Centralização - Campus Propriá</t>
   </si>
@@ -91,6 +91,12 @@
     <t xml:space="preserve">MATERIAL DE CONSUMO</t>
   </si>
   <si>
+    <t xml:space="preserve">339033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSAGENS E DESPESAS COM LOCOMOCAO</t>
+  </si>
+  <si>
     <t xml:space="preserve">339037</t>
   </si>
   <si>
@@ -121,16 +127,16 @@
     <t xml:space="preserve">OBRIG.TRIBUT.E CONTRIB-OP.INTRA-ORCAMENTARIAS</t>
   </si>
   <si>
+    <t xml:space="preserve">1444000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEM.APL.REC.TIT.TN,EX.RF.DIV.PUB.</t>
+  </si>
+  <si>
     <t xml:space="preserve">158134</t>
   </si>
   <si>
     <t xml:space="preserve">INST.FED.DE EDUC.,CIENC.E TEC.DE SERGIPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1444000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEM.APL.REC.TIT.TN,EX.RF.DIV.PUB.</t>
   </si>
   <si>
     <t xml:space="preserve">2994</t>
@@ -387,7 +393,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -624,14 +630,10 @@
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12">
-        <v>617284.09</v>
-      </c>
-      <c r="N11" s="12">
-        <v>234139.51</v>
-      </c>
-      <c r="O11" s="13">
-        <v>224364.53</v>
-      </c>
+        <v>6511.94</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="10"/>
@@ -653,13 +655,13 @@
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12">
-        <v>195252.31</v>
+        <v>629133.39</v>
       </c>
       <c r="N12" s="12">
-        <v>88402.98</v>
+        <v>245537.39</v>
       </c>
       <c r="O12" s="13">
-        <v>72469.35</v>
+        <v>240243.89</v>
       </c>
     </row>
     <row r="13">
@@ -678,17 +680,17 @@
         <v>31</v>
       </c>
       <c r="K13" s="12">
-        <v>2241.2</v>
+        <v>0</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12">
-        <v>23290.1</v>
+        <v>196815.24</v>
       </c>
       <c r="N13" s="12">
-        <v>15751.05</v>
+        <v>88854.06</v>
       </c>
       <c r="O13" s="13">
-        <v>15751.05</v>
+        <v>88371.7</v>
       </c>
     </row>
     <row r="14">
@@ -707,17 +709,17 @@
         <v>33</v>
       </c>
       <c r="K14" s="12">
-        <v>0</v>
+        <v>2241.2</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12">
-        <v>67.38</v>
+        <v>23290.1</v>
       </c>
       <c r="N14" s="12">
-        <v>53.83</v>
+        <v>15751.05</v>
       </c>
       <c r="O14" s="13">
-        <v>53.83</v>
+        <v>15751.05</v>
       </c>
     </row>
     <row r="15">
@@ -740,82 +742,74 @@
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12">
-        <v>146.14</v>
+        <v>67.38</v>
       </c>
       <c r="N15" s="12">
-        <v>146.14</v>
+        <v>53.83</v>
       </c>
       <c r="O15" s="13">
-        <v>146.14</v>
+        <v>53.83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="11">
-        <v>3</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="K16" s="12">
-        <v>15506.97</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0</v>
-      </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12">
+        <v>261.12</v>
+      </c>
+      <c r="N16" s="12">
+        <v>261.12</v>
+      </c>
+      <c r="O16" s="13">
+        <v>261.12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="11">
+        <v>3</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="I17" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K17" s="12">
-        <v>37720</v>
-      </c>
-      <c r="L17" s="12">
-        <v>0</v>
-      </c>
-      <c r="M17" s="12">
-        <v>1027</v>
-      </c>
-      <c r="N17" s="12">
-        <v>553</v>
-      </c>
-      <c r="O17" s="13">
-        <v>553</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" s="10"/>
@@ -833,11 +827,9 @@
         <v>29</v>
       </c>
       <c r="K18" s="12">
-        <v>21671</v>
-      </c>
-      <c r="L18" s="12">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="13"/>
@@ -845,13 +837,17 @@
     <row r="19">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="E19" s="11" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G19" s="11">
         <v>3</v>
@@ -866,7 +862,7 @@
         <v>21</v>
       </c>
       <c r="K19" s="12">
-        <v>192233</v>
+        <v>0</v>
       </c>
       <c r="L19" s="12">
         <v>0</v>
@@ -876,98 +872,76 @@
       <c r="O19" s="13"/>
     </row>
     <row r="20">
-      <c r="A20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="11">
-        <v>3</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K20" s="12">
-        <v>30581</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="13"/>
+        <v>29430.62</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12">
+        <v>4784.2</v>
+      </c>
+      <c r="N20" s="12">
+        <v>1027</v>
+      </c>
+      <c r="O20" s="13">
+        <v>553</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="K21" s="12">
         <v>0</v>
       </c>
       <c r="L21" s="12"/>
-      <c r="M21" s="12">
-        <v>122130</v>
-      </c>
-      <c r="N21" s="12">
-        <v>31840</v>
-      </c>
-      <c r="O21" s="13">
-        <v>24900</v>
-      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="15">
-        <v>3</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>21</v>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="K22" s="12">
-        <v>8701</v>
+        <v>21671</v>
       </c>
       <c r="L22" s="12">
         <v>0</v>
@@ -976,8 +950,142 @@
       <c r="N22" s="12"/>
       <c r="O22" s="13"/>
     </row>
+    <row r="23">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="11">
+        <v>3</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="12">
+        <v>192233</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="11">
+        <v>3</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="12">
+        <v>30581</v>
+      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12">
+        <v>122130</v>
+      </c>
+      <c r="N25" s="12">
+        <v>31840</v>
+      </c>
+      <c r="O25" s="13">
+        <v>31090</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="15">
+        <v>3</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="12">
+        <v>8701</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="33">
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A6:B7"/>
@@ -985,28 +1093,32 @@
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="G6:H7"/>
     <mergeCell ref="I6:J7"/>
-    <mergeCell ref="A8:A19"/>
-    <mergeCell ref="B8:B19"/>
-    <mergeCell ref="C8:C15"/>
-    <mergeCell ref="D8:D15"/>
-    <mergeCell ref="E8:E15"/>
-    <mergeCell ref="F8:F15"/>
-    <mergeCell ref="G8:G15"/>
-    <mergeCell ref="H8:H15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A8:A23"/>
+    <mergeCell ref="B8:B23"/>
+    <mergeCell ref="C8:C18"/>
+    <mergeCell ref="D8:D18"/>
+    <mergeCell ref="E8:E16"/>
+    <mergeCell ref="F8:F16"/>
+    <mergeCell ref="G8:G16"/>
+    <mergeCell ref="H8:H16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/Crédito disponível - Centralização - Campus Propriá.xlsx
+++ b/Crédito disponível - Centralização - Campus Propriá.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>Crédito disponível - Centralização - Campus Propriá</t>
   </si>
@@ -393,7 +393,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -661,7 +661,7 @@
         <v>245537.39</v>
       </c>
       <c r="O12" s="13">
-        <v>240243.89</v>
+        <v>240841.94</v>
       </c>
     </row>
     <row r="13">
@@ -899,7 +899,7 @@
         <v>1027</v>
       </c>
       <c r="O20" s="13">
-        <v>553</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="21">
@@ -941,7 +941,7 @@
         <v>31</v>
       </c>
       <c r="K22" s="12">
-        <v>21671</v>
+        <v>14553.33</v>
       </c>
       <c r="L22" s="12">
         <v>0</v>
@@ -955,52 +955,36 @@
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="11">
-        <v>3</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="11" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K23" s="12">
-        <v>192233</v>
-      </c>
-      <c r="L23" s="12">
-        <v>0</v>
-      </c>
-      <c r="M23" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12">
+        <v>7117.67</v>
+      </c>
       <c r="N23" s="12"/>
       <c r="O23" s="13"/>
     </row>
     <row r="24">
-      <c r="A24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G24" s="11">
         <v>3</v>
@@ -1015,74 +999,115 @@
         <v>21</v>
       </c>
       <c r="K24" s="12">
-        <v>30581</v>
-      </c>
-      <c r="L24" s="12"/>
+        <v>192233</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0</v>
+      </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="A25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="11">
+        <v>3</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="I25" s="11" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="K25" s="12">
-        <v>0</v>
+        <v>30581</v>
       </c>
       <c r="L25" s="12"/>
-      <c r="M25" s="12">
-        <v>122130</v>
-      </c>
-      <c r="N25" s="12">
-        <v>31840</v>
-      </c>
-      <c r="O25" s="13">
-        <v>31090</v>
-      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="13"/>
     </row>
     <row r="26">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12">
+        <v>122130</v>
+      </c>
+      <c r="N26" s="12">
+        <v>31840</v>
+      </c>
+      <c r="O26" s="13">
+        <v>31340</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G27" s="15">
         <v>3</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K27" s="12">
         <v>8701</v>
       </c>
-      <c r="L26" s="12">
-        <v>0</v>
-      </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="13"/>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -1093,8 +1118,8 @@
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="G6:H7"/>
     <mergeCell ref="I6:J7"/>
-    <mergeCell ref="A8:A23"/>
-    <mergeCell ref="B8:B23"/>
+    <mergeCell ref="A8:A24"/>
+    <mergeCell ref="B8:B24"/>
     <mergeCell ref="C8:C18"/>
     <mergeCell ref="D8:D18"/>
     <mergeCell ref="E8:E16"/>
@@ -1105,20 +1130,20 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/Crédito disponível - Centralização - Campus Propriá.xlsx
+++ b/Crédito disponível - Centralização - Campus Propriá.xlsx
@@ -545,7 +545,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="12">
-        <v>0</v>
+        <v>3731.79</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
@@ -575,10 +575,10 @@
         <v>3000</v>
       </c>
       <c r="N9" s="12">
-        <v>1137.86</v>
+        <v>2187.18</v>
       </c>
       <c r="O9" s="13">
-        <v>1137.86</v>
+        <v>2187.18</v>
       </c>
     </row>
     <row r="10">
@@ -601,13 +601,13 @@
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12">
-        <v>5000</v>
+        <v>14028.84</v>
       </c>
       <c r="N10" s="12">
-        <v>1368.17</v>
+        <v>2680.33</v>
       </c>
       <c r="O10" s="13">
-        <v>1368.17</v>
+        <v>2680.33</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         <v>629133.39</v>
       </c>
       <c r="N12" s="12">
-        <v>245537.39</v>
+        <v>370774.37</v>
       </c>
       <c r="O12" s="13">
-        <v>240841.94</v>
+        <v>366033.83</v>
       </c>
     </row>
     <row r="13">
@@ -684,13 +684,13 @@
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12">
-        <v>196815.24</v>
+        <v>208688.45</v>
       </c>
       <c r="N13" s="12">
-        <v>88854.06</v>
+        <v>122572.39</v>
       </c>
       <c r="O13" s="13">
-        <v>88371.7</v>
+        <v>122541.11</v>
       </c>
     </row>
     <row r="14">
@@ -709,17 +709,17 @@
         <v>33</v>
       </c>
       <c r="K14" s="12">
-        <v>2241.2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12">
         <v>23290.1</v>
       </c>
       <c r="N14" s="12">
-        <v>15751.05</v>
+        <v>20872.28</v>
       </c>
       <c r="O14" s="13">
-        <v>15751.05</v>
+        <v>20872.28</v>
       </c>
     </row>
     <row r="15">
@@ -742,13 +742,13 @@
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12">
-        <v>67.38</v>
+        <v>65.13</v>
       </c>
       <c r="N15" s="12">
-        <v>53.83</v>
+        <v>61.65</v>
       </c>
       <c r="O15" s="13">
-        <v>53.83</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="16">
@@ -862,7 +862,7 @@
         <v>21</v>
       </c>
       <c r="K19" s="12">
-        <v>0</v>
+        <v>14553.33</v>
       </c>
       <c r="L19" s="12">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="K20" s="12">
-        <v>29430.62</v>
+        <v>7040.23</v>
       </c>
       <c r="L20" s="12">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>4784.2</v>
       </c>
       <c r="N20" s="12">
-        <v>1027</v>
+        <v>4784.2</v>
       </c>
       <c r="O20" s="13">
-        <v>1027</v>
+        <v>4784.2</v>
       </c>
     </row>
     <row r="21">
@@ -941,7 +941,7 @@
         <v>31</v>
       </c>
       <c r="K22" s="12">
-        <v>14553.33</v>
+        <v>0</v>
       </c>
       <c r="L22" s="12">
         <v>0</v>
@@ -972,8 +972,12 @@
       <c r="M23" s="12">
         <v>7117.67</v>
       </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="13"/>
+      <c r="N23" s="12">
+        <v>567.67</v>
+      </c>
+      <c r="O23" s="13">
+        <v>567.67</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="10"/>
@@ -999,7 +1003,7 @@
         <v>21</v>
       </c>
       <c r="K24" s="12">
-        <v>192233</v>
+        <v>165086.12</v>
       </c>
       <c r="L24" s="12">
         <v>0</v>
@@ -1070,10 +1074,10 @@
         <v>122130</v>
       </c>
       <c r="N26" s="12">
-        <v>31840</v>
+        <v>46580</v>
       </c>
       <c r="O26" s="13">
-        <v>31340</v>
+        <v>46080</v>
       </c>
     </row>
     <row r="27">

--- a/Crédito disponível - Centralização - Campus Propriá.xlsx
+++ b/Crédito disponível - Centralização - Campus Propriá.xlsx
@@ -572,13 +572,13 @@
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="N9" s="12">
-        <v>2187.18</v>
+        <v>2468.38</v>
       </c>
       <c r="O9" s="13">
-        <v>2187.18</v>
+        <v>2468.38</v>
       </c>
     </row>
     <row r="10">
@@ -604,7 +604,7 @@
         <v>14028.84</v>
       </c>
       <c r="N10" s="12">
-        <v>2680.33</v>
+        <v>4000.98</v>
       </c>
       <c r="O10" s="13">
         <v>2680.33</v>
@@ -658,7 +658,7 @@
         <v>629133.39</v>
       </c>
       <c r="N12" s="12">
-        <v>370774.37</v>
+        <v>380804.16</v>
       </c>
       <c r="O12" s="13">
         <v>366033.83</v>
@@ -862,7 +862,7 @@
         <v>21</v>
       </c>
       <c r="K19" s="12">
-        <v>14553.33</v>
+        <v>10553.33</v>
       </c>
       <c r="L19" s="12">
         <v>0</v>

--- a/Crédito disponível - Centralização - Campus Propriá.xlsx
+++ b/Crédito disponível - Centralização - Campus Propriá.xlsx
@@ -661,7 +661,7 @@
         <v>380804.16</v>
       </c>
       <c r="O12" s="13">
-        <v>366033.83</v>
+        <v>375033.32</v>
       </c>
     </row>
     <row r="13">
@@ -1074,7 +1074,7 @@
         <v>122130</v>
       </c>
       <c r="N26" s="12">
-        <v>46580</v>
+        <v>52625</v>
       </c>
       <c r="O26" s="13">
         <v>46080</v>
